--- a/input_table.xlsx
+++ b/input_table.xlsx
@@ -69,22 +69,22 @@
     <t>X</t>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>onResource</t>
+  </si>
+  <si>
+    <t>needResource</t>
+  </si>
+  <si>
     <t>K, X</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>onResource</t>
-  </si>
-  <si>
-    <t>needRecource</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,13 +417,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -522,7 +522,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -533,7 +533,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
